--- a/src/main/java/com/cdp/InputFiles/CDPDASHBOARD.xlsx
+++ b/src/main/java/com/cdp/InputFiles/CDPDASHBOARD.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
   <si>
     <t>Proceed_ON_FAIL</t>
   </si>
@@ -250,18 +250,6 @@
     <t>add_Dashboard_Menu_Button</t>
   </si>
   <si>
-    <t>TS24</t>
-  </si>
-  <si>
-    <t>TS25</t>
-  </si>
-  <si>
-    <t>TS26</t>
-  </si>
-  <si>
-    <t>TS27</t>
-  </si>
-  <si>
     <t>Add Dashboard</t>
   </si>
   <si>
@@ -274,126 +262,9 @@
     <t>Dashboard:</t>
   </si>
   <si>
-    <t>TS28</t>
-  </si>
-  <si>
     <t>deafault_Dashboard_Widget</t>
   </si>
   <si>
-    <t>verifyWaterMarkAvailability</t>
-  </si>
-  <si>
-    <t>add_Dashboard_Input</t>
-  </si>
-  <si>
-    <t>Enter dashboard name</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>add_Dashboard_Cancel_Button</t>
-  </si>
-  <si>
-    <t>add_Dashboard_Ok_Button</t>
-  </si>
-  <si>
-    <t>TS29</t>
-  </si>
-  <si>
-    <t>TS30</t>
-  </si>
-  <si>
-    <t>TS31</t>
-  </si>
-  <si>
-    <t>TS32</t>
-  </si>
-  <si>
-    <t>TS33</t>
-  </si>
-  <si>
-    <t>TS34</t>
-  </si>
-  <si>
-    <t>TS35</t>
-  </si>
-  <si>
-    <t>TS36</t>
-  </si>
-  <si>
-    <t>TS37</t>
-  </si>
-  <si>
-    <t>TS38</t>
-  </si>
-  <si>
-    <t>TS39</t>
-  </si>
-  <si>
-    <t>default_Dashboard_Widget_remove_icon</t>
-  </si>
-  <si>
-    <t>TS40</t>
-  </si>
-  <si>
-    <t>TS41</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>TS42</t>
-  </si>
-  <si>
-    <t>TS43</t>
-  </si>
-  <si>
-    <t>TS44</t>
-  </si>
-  <si>
-    <t>delete_Dashboard_Header</t>
-  </si>
-  <si>
-    <t>delete_Confirm_Content</t>
-  </si>
-  <si>
-    <t>delete_Confirm_No_Button</t>
-  </si>
-  <si>
-    <t>delete_Confirm_Yes_Button</t>
-  </si>
-  <si>
-    <t>TS45</t>
-  </si>
-  <si>
-    <t>TS46</t>
-  </si>
-  <si>
-    <t>TS47</t>
-  </si>
-  <si>
-    <t>TS48</t>
-  </si>
-  <si>
-    <t>confirmpopup_Close_Icon</t>
-  </si>
-  <si>
-    <t>Are you sure you want to delete this dashboard?</t>
-  </si>
-  <si>
-    <t>Delete Dashboard</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Validate Dashboard button text</t>
   </si>
   <si>
@@ -415,69 +286,9 @@
     <t>Validate SOP button text</t>
   </si>
   <si>
-    <t>Click on Confirm Yes button</t>
-  </si>
-  <si>
-    <t>Click on remove button</t>
-  </si>
-  <si>
-    <t>Click on default text</t>
-  </si>
-  <si>
-    <t>Click on confirm No button</t>
-  </si>
-  <si>
-    <t>Click on Close icon</t>
-  </si>
-  <si>
-    <t>To validate close icon is visible or not</t>
-  </si>
-  <si>
-    <t>Validate confirm No text</t>
-  </si>
-  <si>
-    <t>Validate confirm Yes text</t>
-  </si>
-  <si>
-    <t>Validate Confirm content text</t>
-  </si>
-  <si>
-    <t>Validate Dashboard header text</t>
-  </si>
-  <si>
-    <t>Click on remove icon</t>
-  </si>
-  <si>
-    <t>To validate remove icon is visible or not</t>
-  </si>
-  <si>
     <t>Validate default text</t>
   </si>
   <si>
-    <t>Click on OK button</t>
-  </si>
-  <si>
-    <t>Input Dashboard text</t>
-  </si>
-  <si>
-    <t>Click on menu button</t>
-  </si>
-  <si>
-    <t>Click on cancel button</t>
-  </si>
-  <si>
-    <t>Validate Ok button text</t>
-  </si>
-  <si>
-    <t>Validate Cancel button text</t>
-  </si>
-  <si>
-    <t>To validate Watermark availability</t>
-  </si>
-  <si>
-    <t>Click on add Menu button</t>
-  </si>
-  <si>
     <t>Validate Dashboard text</t>
   </si>
   <si>
@@ -518,138 +329,6 @@
   </si>
   <si>
     <t>TS20</t>
-  </si>
-  <si>
-    <t>TS49</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Browserwait</t>
-  </si>
-  <si>
-    <t>TS50</t>
-  </si>
-  <si>
-    <t>TS51</t>
-  </si>
-  <si>
-    <t>widget_Length&amp;widget_Text</t>
-  </si>
-  <si>
-    <t>Lighting Map</t>
-  </si>
-  <si>
-    <t>Parking Map</t>
-  </si>
-  <si>
-    <t>Traffic Map</t>
-  </si>
-  <si>
-    <t>Waste Map</t>
-  </si>
-  <si>
-    <t>Transit Map</t>
-  </si>
-  <si>
-    <t>Environment Map</t>
-  </si>
-  <si>
-    <t>Mobility Map</t>
-  </si>
-  <si>
-    <t>Safety &amp; Security Map</t>
-  </si>
-  <si>
-    <t>Fault Map</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>Lighting</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Mobility</t>
-  </si>
-  <si>
-    <t>Transit</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Safety &amp; Security</t>
-  </si>
-  <si>
-    <t>Fault</t>
-  </si>
-  <si>
-    <t>TS52</t>
-  </si>
-  <si>
-    <t>TS53</t>
-  </si>
-  <si>
-    <t>TS54</t>
-  </si>
-  <si>
-    <t>TS55</t>
-  </si>
-  <si>
-    <t>TS56</t>
-  </si>
-  <si>
-    <t>TS57</t>
-  </si>
-  <si>
-    <t>TS58</t>
-  </si>
-  <si>
-    <t>TS59</t>
-  </si>
-  <si>
-    <t>TS60</t>
-  </si>
-  <si>
-    <t>TS61</t>
-  </si>
-  <si>
-    <t>TS62</t>
-  </si>
-  <si>
-    <t>TS63</t>
-  </si>
-  <si>
-    <t>TS64</t>
-  </si>
-  <si>
-    <t>TS65</t>
-  </si>
-  <si>
-    <t>TS66</t>
-  </si>
-  <si>
-    <t>TS67</t>
-  </si>
-  <si>
-    <t>TS68</t>
-  </si>
-  <si>
-    <t>TS69</t>
-  </si>
-  <si>
-    <t>TS70</t>
-  </si>
-  <si>
-    <t>Module_layer</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1406,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>29</v>
@@ -1432,7 +1111,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>29</v>
@@ -1458,7 +1137,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
@@ -1484,7 +1163,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>29</v>
@@ -1510,7 +1189,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>29</v>
@@ -1536,7 +1215,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1562,7 +1241,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>29</v>
@@ -1585,10 +1264,10 @@
         <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>29</v>
@@ -1597,7 +1276,7 @@
         <v>70</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>3</v>
@@ -1611,10 +1290,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>29</v>
@@ -1623,7 +1302,7 @@
         <v>71</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -1637,10 +1316,10 @@
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
@@ -1661,10 +1340,10 @@
         <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>29</v>
@@ -1673,7 +1352,7 @@
         <v>73</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>3</v>
@@ -1687,10 +1366,10 @@
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>31</v>
@@ -1711,10 +1390,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>29</v>
@@ -1723,7 +1402,7 @@
         <v>75</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1740,7 +1419,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
@@ -1764,7 +1443,7 @@
         <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>26</v>
@@ -1788,16 +1467,16 @@
         <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1807,1148 +1486,544 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>206</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>209</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="5"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="5"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="5"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="5"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="5"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="5"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="5"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
